--- a/SimpleXMATCH.xlsx
+++ b/SimpleXMATCH.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Udemy Courses\MS-ExcelCourse-OfficeNEWB.com\XLOOKUP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9B5CA5-6726-41E7-B4BC-3641FED43668}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CCB9CF-EBA9-4A77-AE02-BAF3EF949925}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{0CD10BB3-8EF8-4EF3-9363-BAC1330FD4F4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{0CD10BB3-8EF8-4EF3-9363-BAC1330FD4F4}"/>
   </bookViews>
   <sheets>
     <sheet name="SimpleXMATCH" sheetId="1" r:id="rId1"/>
     <sheet name="BonusXMATCH" sheetId="2" r:id="rId2"/>
     <sheet name="SalesXMATCH" sheetId="3" r:id="rId3"/>
+    <sheet name="SUBTOTAL" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
   <si>
     <t>XMATCH FUNCTION EXAMPLES</t>
   </si>
@@ -96,9 +97,6 @@
   </si>
   <si>
     <t>Guvava</t>
-  </si>
-  <si>
-    <t>Gra?</t>
   </si>
   <si>
     <t>Finds the position of the first term that is an exact match or the next largest value for (i.e., starts with) "Gra".</t>
@@ -223,6 +221,54 @@
   </si>
   <si>
     <t>Total Sale</t>
+  </si>
+  <si>
+    <t>XMATCH</t>
+  </si>
+  <si>
+    <t>K?</t>
+  </si>
+  <si>
+    <t>Ron</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
+  </si>
+  <si>
+    <t>COUNT</t>
+  </si>
+  <si>
+    <t>COUNTA</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>STDEV</t>
+  </si>
+  <si>
+    <t>STDEVP</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>VAR</t>
+  </si>
+  <si>
+    <t>VARP</t>
+  </si>
+  <si>
+    <t>TOTAL UNITS SOLD</t>
+  </si>
+  <si>
+    <t>XLOOKUP Used to get automatic Function-number, as argument inside the SUBTOTAL- FORMULA</t>
+  </si>
+  <si>
+    <t>SUBTOTAL- FORMULA Example</t>
   </si>
 </sst>
 </file>
@@ -232,9 +278,9 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,8 +377,23 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -357,8 +418,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor theme="5" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -403,6 +476,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top style="thin">
+        <color theme="5"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -410,7 +498,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -421,16 +509,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -446,24 +525,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -473,9 +574,9 @@
     <cellStyle name="Normal_EXCEL3-2" xfId="3" xr:uid="{39DD2032-43BE-4513-9755-7986A71E4C2A}"/>
     <cellStyle name="Normal_Sheet1" xfId="2" xr:uid="{FD033E71-D912-4362-B04F-0460CB1D661A}"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -489,6 +590,58 @@
         <top style="thin">
           <color theme="5" tint="0.39997558519241921"/>
         </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF005426"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -593,23 +746,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{71ADA3C9-288D-4D24-8A9A-EE9873F1BFAD}" name="Table2" displayName="Table2" ref="A8:A18" headerRowCount="0" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{71ADA3C9-288D-4D24-8A9A-EE9873F1BFAD}" name="Table2" displayName="Table2" ref="A8:A18" headerRowCount="0" totalsRowShown="0" headerRowDxfId="9">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{E9A2313E-52C3-485B-A5F0-133B572090E9}" name="Column1" headerRowDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{E9A2313E-52C3-485B-A5F0-133B572090E9}" name="Column1" headerRowDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8AFFCEDB-7836-4EA2-8F8E-EE7D6E159CEB}" name="Table6" displayName="Table6" ref="A8:B18" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8AFFCEDB-7836-4EA2-8F8E-EE7D6E159CEB}" name="Table6" displayName="Table6" ref="A8:B18" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="A8:B18" xr:uid="{01216D73-9279-40FB-B0EB-7FB9F29C50F7}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{9DB1A22D-154E-41ED-BBF1-2FA82665D671}" name="SALESMEN" dataCellStyle="Normal_Sheet1"/>
-    <tableColumn id="2" xr3:uid="{3BA929DE-4FB9-40A0-A4F3-70200070AACA}" name="TOTAL SALE" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{3BA929DE-4FB9-40A0-A4F3-70200070AACA}" name="TOTAL SALE" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E39209E6-776E-40F8-ADB6-C78874AB1819}" name="Table65" displayName="Table65" ref="F6:G18" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="F6:G18" xr:uid="{641FC302-F4AD-4CF9-A22D-3819D13B431B}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{7B024E4C-5DD6-4864-93A4-63D87A8B0343}" name="SALESMEN" dataCellStyle="Normal_Sheet1"/>
+    <tableColumn id="2" xr3:uid="{EEC159E8-8A04-4353-B4FB-4437ACBD9FB2}" name="TOTAL UNITS SOLD" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -915,7 +1079,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,61 +1092,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
     </row>
     <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
+      <c r="A2" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="G4" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J7" s="5"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -1013,11 +1177,11 @@
         <v>7</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="H9" s="1">
         <f>_xlfn.XMATCH(G9,A9:A18,1)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1092,7 +1256,7 @@
   <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A8" sqref="A8:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,179 +1266,179 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
     </row>
     <row r="2" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
+      <c r="A2" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
     </row>
     <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G7" s="14"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="9">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="B9" s="6">
+        <v>15987</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="6">
+        <v>65825</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="6">
+        <v>20378</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="12">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="9">
-        <v>15987</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="9">
-        <v>65825</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="9">
-        <v>20378</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="13">
+      <c r="E11" s="10">
         <f>_xlfn.XMATCH(E8,Table6[TOTAL SALE],1)</f>
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="6">
+        <v>14840</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="9">
-        <v>14840</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="9">
+      <c r="B13" s="6">
         <v>18547</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="6">
+        <v>6589</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="9">
-        <v>6589</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="B15" s="6">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="9">
-        <v>4236</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="B16" s="6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="9">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="B17" s="6">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="9">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="9">
+      <c r="B18" s="6">
         <v>4500</v>
       </c>
     </row>
@@ -1294,10 +1458,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67156E6F-FD39-4DB9-B9D4-84B91726997D}">
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1307,408 +1471,423 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
     </row>
     <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B6" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="22" t="s">
+      <c r="D6" s="17" t="s">
         <v>53</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="24" cm="1">
-        <f t="array" ref="D7">_xlfn.XLOOKUP(C7,$B$11:$M$11,_xlfn.XLOOKUP(B7,$A$12:$A$15,$B$12:$M$15))</f>
-        <v>1949</v>
+      <c r="D7" s="19" cm="1">
+        <f t="array" ref="D7">_xlfn.XLOOKUP(C7,$B$12:$M$12,_xlfn.XLOOKUP(B7,$A$13:$A$16,$B$13:$M$16))</f>
+        <v>2872</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="24" cm="1">
-        <f t="array" ref="D8">VLOOKUP(B8,$A$12:$M$15,MATCH(C8,$A$11:$M$11,0),FALSE)</f>
+      <c r="B8" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="19" cm="1">
+        <f t="array" ref="D8">VLOOKUP(B8,$A$13:$M$16,MATCH(C8,$A$12:$M$12,0),FALSE)</f>
         <v>2753</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="19" cm="1">
+        <f t="array" ref="D9">INDEX($B$13:$M$16,_xlfn.XMATCH(B9,$A$13:$A$16,0),_xlfn.XMATCH(C9,$B$12:$M$12,0))</f>
+        <v>4186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="24" cm="1">
-        <f t="array" ref="D9">INDEX($B$12:$M$15,_xlfn.XMATCH(B9,$A$12:$A$15,0),_xlfn.XMATCH(C9,$B$11:$M$11,0))</f>
-        <v>4186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="C10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="19">
+        <f>_xlfn.XMATCH(H15,H13:H16)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="C12" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="D12" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="20" t="s">
+      <c r="F12" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="G12" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="H12" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="I12" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="J12" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="K12" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="L12" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="L11" s="20" t="s">
+      <c r="M12" s="16" t="s">
         <v>47</v>
-      </c>
-      <c r="M11" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="17">
-        <v>6100</v>
-      </c>
-      <c r="C12" s="17">
-        <v>10029</v>
-      </c>
-      <c r="D12" s="17">
-        <v>2872</v>
-      </c>
-      <c r="E12" s="17">
-        <v>5666</v>
-      </c>
-      <c r="F12" s="17">
-        <v>3939</v>
-      </c>
-      <c r="G12" s="17">
-        <v>6164</v>
-      </c>
-      <c r="H12" s="17">
-        <v>9520</v>
-      </c>
-      <c r="I12" s="17">
-        <v>8843</v>
-      </c>
-      <c r="J12" s="17">
-        <v>6722</v>
-      </c>
-      <c r="K12" s="17">
-        <v>2603</v>
-      </c>
-      <c r="L12" s="17">
-        <v>10477</v>
-      </c>
-      <c r="M12" s="17">
-        <v>3736</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="17">
-        <v>10201</v>
-      </c>
-      <c r="C13" s="17">
-        <v>10437</v>
-      </c>
-      <c r="D13" s="17">
-        <v>1949</v>
-      </c>
-      <c r="E13" s="17">
-        <v>9939</v>
-      </c>
-      <c r="F13" s="17">
-        <v>4216</v>
-      </c>
-      <c r="G13" s="17">
-        <v>7188</v>
-      </c>
-      <c r="H13" s="17">
-        <v>4568</v>
-      </c>
-      <c r="I13" s="17">
-        <v>10138</v>
-      </c>
-      <c r="J13" s="17">
-        <v>1955</v>
-      </c>
-      <c r="K13" s="17">
-        <v>4902</v>
-      </c>
-      <c r="L13" s="17">
-        <v>2553</v>
-      </c>
-      <c r="M13" s="17">
-        <v>4615</v>
+        <v>48</v>
+      </c>
+      <c r="B13" s="13">
+        <v>6100</v>
+      </c>
+      <c r="C13" s="13">
+        <v>10029</v>
+      </c>
+      <c r="D13" s="13">
+        <v>2872</v>
+      </c>
+      <c r="E13" s="13">
+        <v>5666</v>
+      </c>
+      <c r="F13" s="13">
+        <v>3939</v>
+      </c>
+      <c r="G13" s="13">
+        <v>6164</v>
+      </c>
+      <c r="H13" s="13">
+        <v>9520</v>
+      </c>
+      <c r="I13" s="13">
+        <v>8843</v>
+      </c>
+      <c r="J13" s="13">
+        <v>6722</v>
+      </c>
+      <c r="K13" s="13">
+        <v>2603</v>
+      </c>
+      <c r="L13" s="13">
+        <v>10477</v>
+      </c>
+      <c r="M13" s="13">
+        <v>3736</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="17">
-        <v>4528</v>
-      </c>
-      <c r="C14" s="17">
-        <v>5745</v>
-      </c>
-      <c r="D14" s="17">
-        <v>2753</v>
-      </c>
-      <c r="E14" s="17">
-        <v>8677</v>
-      </c>
-      <c r="F14" s="17">
-        <v>2696</v>
-      </c>
-      <c r="G14" s="17">
-        <v>8206</v>
-      </c>
-      <c r="H14" s="17">
-        <v>4215</v>
-      </c>
-      <c r="I14" s="17">
-        <v>9786</v>
-      </c>
-      <c r="J14" s="17">
-        <v>9797</v>
-      </c>
-      <c r="K14" s="17">
-        <v>1267</v>
-      </c>
-      <c r="L14" s="17">
-        <v>5454</v>
-      </c>
-      <c r="M14" s="17">
-        <v>1015</v>
+        <v>31</v>
+      </c>
+      <c r="B14" s="13">
+        <v>10201</v>
+      </c>
+      <c r="C14" s="13">
+        <v>10437</v>
+      </c>
+      <c r="D14" s="13">
+        <v>1949</v>
+      </c>
+      <c r="E14" s="13">
+        <v>9939</v>
+      </c>
+      <c r="F14" s="13">
+        <v>4216</v>
+      </c>
+      <c r="G14" s="13">
+        <v>7188</v>
+      </c>
+      <c r="H14" s="13">
+        <v>4568</v>
+      </c>
+      <c r="I14" s="13">
+        <v>10138</v>
+      </c>
+      <c r="J14" s="13">
+        <v>1955</v>
+      </c>
+      <c r="K14" s="13">
+        <v>4902</v>
+      </c>
+      <c r="L14" s="13">
+        <v>2553</v>
+      </c>
+      <c r="M14" s="13">
+        <v>4615</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="13">
+        <v>4528</v>
+      </c>
+      <c r="C15" s="13">
+        <v>5745</v>
+      </c>
+      <c r="D15" s="13">
+        <v>2753</v>
+      </c>
+      <c r="E15" s="13">
+        <v>8677</v>
+      </c>
+      <c r="F15" s="13">
+        <v>2696</v>
+      </c>
+      <c r="G15" s="13">
+        <v>8206</v>
+      </c>
+      <c r="H15" s="13">
+        <v>4215</v>
+      </c>
+      <c r="I15" s="13">
+        <v>9786</v>
+      </c>
+      <c r="J15" s="13">
+        <v>9797</v>
+      </c>
+      <c r="K15" s="13">
+        <v>1267</v>
+      </c>
+      <c r="L15" s="13">
+        <v>5454</v>
+      </c>
+      <c r="M15" s="13">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="13">
+        <v>7888</v>
+      </c>
+      <c r="C16" s="13">
+        <v>7587</v>
+      </c>
+      <c r="D16" s="13">
+        <v>4186</v>
+      </c>
+      <c r="E16" s="13">
+        <v>7567</v>
+      </c>
+      <c r="F16" s="13">
+        <v>7106</v>
+      </c>
+      <c r="G16" s="13">
+        <v>7602</v>
+      </c>
+      <c r="H16" s="13">
+        <v>4946</v>
+      </c>
+      <c r="I16" s="13">
+        <v>4033</v>
+      </c>
+      <c r="J16" s="13">
+        <v>3201</v>
+      </c>
+      <c r="K16" s="13">
+        <v>6236</v>
+      </c>
+      <c r="L16" s="13">
+        <v>8743</v>
+      </c>
+      <c r="M16" s="13">
+        <v>9010</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="17">
-        <v>7888</v>
-      </c>
-      <c r="C15" s="17">
-        <v>7587</v>
-      </c>
-      <c r="D15" s="17">
-        <v>4186</v>
-      </c>
-      <c r="E15" s="17">
-        <v>7567</v>
-      </c>
-      <c r="F15" s="17">
-        <v>7106</v>
-      </c>
-      <c r="G15" s="17">
-        <v>7602</v>
-      </c>
-      <c r="H15" s="17">
-        <v>4946</v>
-      </c>
-      <c r="I15" s="17">
-        <v>4033</v>
-      </c>
-      <c r="J15" s="17">
-        <v>3201</v>
-      </c>
-      <c r="K15" s="17">
-        <v>6236</v>
-      </c>
-      <c r="L15" s="17">
-        <v>8743</v>
-      </c>
-      <c r="M15" s="17">
-        <v>9010</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="19">
-        <f>SUM(B12:B15)</f>
+      <c r="B17" s="15">
+        <f>SUM(B13:B16)</f>
         <v>28717</v>
       </c>
-      <c r="C16" s="19">
-        <f t="shared" ref="C16:M16" si="0">SUM(C12:C15)</f>
+      <c r="C17" s="15">
+        <f t="shared" ref="C17:M17" si="0">SUM(C13:C16)</f>
         <v>33798</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D17" s="15">
         <f t="shared" si="0"/>
         <v>11760</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E17" s="15">
         <f t="shared" si="0"/>
         <v>31849</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F17" s="15">
         <f t="shared" si="0"/>
         <v>17957</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G17" s="15">
         <f t="shared" si="0"/>
         <v>29160</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H17" s="15">
         <f t="shared" si="0"/>
         <v>23249</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I17" s="15">
         <f t="shared" si="0"/>
         <v>32800</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J17" s="15">
         <f t="shared" si="0"/>
         <v>21675</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K17" s="15">
         <f t="shared" si="0"/>
         <v>15008</v>
       </c>
-      <c r="L16" s="19">
+      <c r="L17" s="15">
         <f t="shared" si="0"/>
         <v>27227</v>
       </c>
-      <c r="M16" s="19">
+      <c r="M17" s="15">
         <f t="shared" si="0"/>
         <v>18376</v>
       </c>
@@ -1720,13 +1899,318 @@
     <mergeCell ref="A2:T4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C9" xr:uid="{3F3F7FB1-9689-4C3B-BCB3-264229680ED7}">
-      <formula1>$B$11:$M$11</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C10" xr:uid="{3F3F7FB1-9689-4C3B-BCB3-264229680ED7}">
+      <formula1>$B$12:$M$12</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B9" xr:uid="{32E20A22-A9E0-441D-B030-526F16F4A27C}">
-      <formula1>$A$12:$A$15</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B10" xr:uid="{32E20A22-A9E0-441D-B030-526F16F4A27C}">
+      <formula1>$A$13:$A$16</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71ED7C9B-3F77-4BC3-9A3E-F85DB05354DC}">
+  <dimension ref="A1:U18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="7" width="25.7109375" customWidth="1"/>
+    <col min="10" max="11" width="11.42578125" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+    </row>
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+    </row>
+    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="25">
+        <v>1010</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="25">
+        <v>1011</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="27">
+        <v>2</v>
+      </c>
+      <c r="N8" s="30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="25">
+        <v>1012</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="26">
+        <v>3</v>
+      </c>
+      <c r="N9" s="31">
+        <f>_xlfn.XLOOKUP(F18,J7:J17,K7:K17)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="25">
+        <v>1013</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="25">
+        <v>1014</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="25">
+        <v>1015</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="25">
+        <v>1016</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="25">
+        <v>1017</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="25">
+        <v>1018</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" s="26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="25">
+        <v>1019</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="K16" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F17" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="25">
+        <v>1020</v>
+      </c>
+      <c r="J17" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="6:11" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="F18" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="29">
+        <f>SUBTOTAL(N9,G7:G17)</f>
+        <v>11165</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="A2:T4"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18" xr:uid="{9FA94831-E673-4D11-AFAE-4D4727F28F85}">
+      <formula1>$J$7:$J$17</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>